--- a/Excel/GS Gerüstung/Betondruck.xlsx
+++ b/Excel/GS Gerüstung/Betondruck.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremymeile/Documents/Berechnungshilfen/Excel/GS Gerüstung/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry\Documents\GitHub\Berechnungshilfen\Excel\GS Gerüstung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A9AE1D9-E15A-7D4D-90BB-62EA162EDCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2363650B-4788-49FB-8B90-D77B5AF56A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="32780" windowHeight="20140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33024" yWindow="192" windowWidth="27756" windowHeight="16272" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auswahl" sheetId="2" r:id="rId1"/>
@@ -403,7 +403,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,12 +441,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -784,36 +778,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -871,6 +835,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -878,7 +872,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -962,13 +956,8 @@
     <xf numFmtId="4" fontId="8" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="8" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="3" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -977,14 +966,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="3" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -992,6 +979,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Ausgabe" xfId="2" builtinId="21"/>
@@ -1084,8 +1077,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13451840" y="9442563"/>
-          <a:ext cx="7056419" cy="3314212"/>
+          <a:off x="12453983" y="9123249"/>
+          <a:ext cx="6318005" cy="3285183"/>
           <a:chOff x="12682070" y="9381603"/>
           <a:chExt cx="6949889" cy="3329452"/>
         </a:xfrm>
@@ -2671,36 +2664,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="4" style="2" customWidth="1"/>
-    <col min="3" max="3" width="41" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" style="2" customWidth="1"/>
     <col min="5" max="5" width="11" style="2" customWidth="1"/>
     <col min="6" max="6" width="79.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="2"/>
+    <col min="7" max="7" width="16.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" style="2"/>
     <col min="10" max="10" width="10.33203125" style="2" customWidth="1"/>
     <col min="11" max="11" width="8" style="2" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="2" customWidth="1"/>
     <col min="13" max="13" width="8" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9.83203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="7.1640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="9.77734375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="7.109375" style="2" customWidth="1"/>
     <col min="17" max="17" width="7.6640625" style="2" customWidth="1"/>
     <col min="18" max="18" width="5.6640625" style="2" customWidth="1"/>
     <col min="19" max="19" width="6.33203125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="3.5" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="8.83203125" style="2"/>
+    <col min="20" max="20" width="3.44140625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="34" t="s">
         <v>36</v>
       </c>
@@ -2712,7 +2705,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="30" t="s">
         <v>38</v>
       </c>
@@ -2727,7 +2720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C3" s="6" t="s">
         <v>17</v>
       </c>
@@ -2739,7 +2732,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C4" s="12" t="s">
         <v>18</v>
       </c>
@@ -2751,7 +2744,7 @@
       </c>
       <c r="F4" s="14"/>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C5" s="12" t="s">
         <v>19</v>
       </c>
@@ -2763,7 +2756,7 @@
       </c>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="15" t="s">
         <v>45</v>
       </c>
@@ -2779,8 +2772,8 @@
         <v>6.76 * 0.25 * 3.13 = 5.29 m³</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="29" t="s">
         <v>39</v>
       </c>
@@ -2795,7 +2788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
@@ -2807,7 +2800,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C10" s="12" t="s">
         <v>21</v>
       </c>
@@ -2819,13 +2812,13 @@
       </c>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="12"/>
       <c r="D11" s="47"/>
       <c r="E11" s="17"/>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="12" t="s">
         <v>42</v>
       </c>
@@ -2847,7 +2840,7 @@
         <v>1 m³ / (10 min / 60 min) = 6 m³/h</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="15" t="s">
         <v>43</v>
       </c>
@@ -2861,8 +2854,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="29" t="s">
         <v>46</v>
       </c>
@@ -2877,7 +2870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C16" s="12" t="s">
         <v>48</v>
       </c>
@@ -2890,7 +2883,7 @@
       </c>
       <c r="F16" s="14"/>
     </row>
-    <row r="17" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="15" t="s">
         <v>49</v>
       </c>
@@ -2906,8 +2899,8 @@
         <v>5.2897 m³ / 6 h = 0.881616666666667 h</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="29" t="s">
         <v>51</v>
       </c>
@@ -2922,7 +2915,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="23" t="s">
         <v>53</v>
       </c>
@@ -2938,8 +2931,8 @@
         <v>3.13 m / 0.881616666666667 h = 3.55 m/h</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="29" t="s">
         <v>54</v>
       </c>
@@ -2948,13 +2941,13 @@
       <c r="E22" s="4"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C23" s="27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="29" t="s">
         <v>55</v>
       </c>
@@ -2963,13 +2956,13 @@
       <c r="E25" s="4"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="29" t="str">
         <f>"7. Berechnung des Frischbetondrucks nach " &amp; C26</f>
         <v>7. Berechnung des Frischbetondrucks nach Erstarrungsende</v>
@@ -2983,7 +2976,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C29" s="6" t="s">
         <v>56</v>
       </c>
@@ -2995,7 +2988,7 @@
       </c>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C30" s="12" t="s">
         <v>26</v>
       </c>
@@ -3007,7 +3000,7 @@
       </c>
       <c r="F30" s="39"/>
     </row>
-    <row r="31" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C31" s="12" t="s">
         <v>27</v>
       </c>
@@ -3020,7 +3013,7 @@
       </c>
       <c r="F31" s="14"/>
     </row>
-    <row r="32" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C32" s="12" t="s">
         <v>60</v>
       </c>
@@ -3055,7 +3048,7 @@
         <v>44 * 1 * 3.55 = 156.21 kN/m²</v>
       </c>
     </row>
-    <row r="33" spans="2:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C33" s="12" t="s">
         <v>62</v>
       </c>
@@ -3071,11 +3064,11 @@
         <v>3.13 m * 25 kN/m³ = 78.25 kN/m²</v>
       </c>
     </row>
-    <row r="34" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C34" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="55">
+      <c r="D34" s="50">
         <f>D33*D5*0.5</f>
         <v>122.46124999999999</v>
       </c>
@@ -3087,8 +3080,8 @@
         <v>78.25 kN/m² * 3.13 m * 0.5 = 122.46125 kN/m²</v>
       </c>
     </row>
-    <row r="35" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="29" t="s">
         <v>58</v>
       </c>
@@ -3103,7 +3096,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C37" s="41" t="s">
         <v>59</v>
       </c>
@@ -3119,8 +3112,8 @@
         <v>156.21 kN/m² / 25 kN/m³ = 6.25 m</v>
       </c>
     </row>
-    <row r="38" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="29" t="s">
         <v>66</v>
       </c>
@@ -3135,56 +3128,57 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="2:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="C40" s="13" t="s">
+    <row r="40" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C40" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="54">
         <f>VLOOKUP(C40,Bindstab!A1:B3,2,FALSE)</f>
         <v>150</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="41" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="54" t="s">
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D41" s="49">
+      <c r="D41" s="22">
         <f>(D34*D5*0.5)+(D5*25)*D5</f>
         <v>436.57435624999994</v>
       </c>
       <c r="E41" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="F41" s="45" t="e">
+      <c r="F41" s="62" t="e">
         <f>"= (" &amp; ROUND(E35, 2) &amp; "*" &amp; ROUND(E32, 2) &amp; "*0.5)+(" &amp; ROUND(I18, 2) &amp; "-" &amp;ROUND(E35, 2) &amp; ")*" &amp; ROUND(E32, 2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="54" t="s">
+    <row r="42" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="49">
+      <c r="D42" s="22">
         <f>D41*SQRT(2)</f>
         <v>617.40937559305314</v>
       </c>
       <c r="E42" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="45" t="str">
+      <c r="F42" s="62" t="str">
         <f>"= " &amp; TEXT(ROUND(D41, 2), "0.00") &amp; " kN/m1 * WURZEL(2)"</f>
         <v>= 436.57 kN/m1 * WURZEL(2)</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="I42" s="65"/>
-      <c r="J42" s="65"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
@@ -3194,20 +3188,20 @@
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
-      <c r="T42" s="66"/>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C43" s="54" t="s">
+      <c r="T42" s="59"/>
+    </row>
+    <row r="43" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C43" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="50">
+      <c r="D43" s="22">
         <f>(D37/D42)</f>
         <v>1.0120547171894093E-2</v>
       </c>
       <c r="E43" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="F43" s="45" t="e">
+      <c r="F43" s="62" t="e">
         <f>"= "&amp;TEXT(ROUND(E37,2),"0.00")&amp;" kN : "&amp;TEXT(ROUND(D42,2),"0.00")&amp;" kN/m1"</f>
         <v>#VALUE!</v>
       </c>
@@ -3216,37 +3210,37 @@
       <c r="J43"/>
       <c r="T43" s="14"/>
     </row>
-    <row r="44" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="53" t="s">
+    <row r="44" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="51">
+      <c r="D44" s="50">
         <f>(D37/D42)*2</f>
         <v>2.0241094343788187E-2</v>
       </c>
-      <c r="E44" s="52" t="s">
+      <c r="E44" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="52" t="e">
+      <c r="F44" s="63" t="e">
         <f>"= (" &amp; TEXT(ROUND(E37, 2), "0.00") &amp; " kN : " &amp; TEXT(ROUND(D42, 2), "0.00") &amp; " kN/m1) * 2"</f>
         <v>#VALUE!</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44"/>
       <c r="J44"/>
-      <c r="L44" s="63"/>
+      <c r="L44" s="56"/>
       <c r="T44" s="14"/>
     </row>
-    <row r="45" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H45" s="12"/>
-      <c r="L45" s="56">
+      <c r="L45" s="51">
         <f>D49</f>
         <v>2.0866666666666664</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q45" s="56">
+      <c r="Q45" s="51">
         <f>D50</f>
         <v>1.0433333333333332</v>
       </c>
@@ -3255,7 +3249,7 @@
       </c>
       <c r="T45" s="14"/>
     </row>
-    <row r="46" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="29" t="s">
         <v>79</v>
       </c>
@@ -3272,11 +3266,11 @@
       <c r="H46" s="12"/>
       <c r="T46" s="14"/>
     </row>
-    <row r="47" spans="2:20" ht="16" x14ac:dyDescent="0.2">
-      <c r="C47" s="58" t="s">
+    <row r="47" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C47" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="59">
+      <c r="D47" s="54">
         <f>VLOOKUP(C47,Bindstab!A1:B3,2,FALSE)</f>
         <v>150</v>
       </c>
@@ -3287,44 +3281,44 @@
       <c r="H47" s="12"/>
       <c r="T47" s="14"/>
     </row>
-    <row r="48" spans="2:20" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C48" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="60">
         <v>3.13</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="61" t="s">
         <v>44</v>
       </c>
       <c r="F48" s="14"/>
       <c r="H48" s="12"/>
       <c r="T48" s="14"/>
     </row>
-    <row r="49" spans="3:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C49" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D49" s="60">
+      <c r="D49" s="22">
         <f>D48/3*2</f>
         <v>2.0866666666666664</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="61" t="s">
         <v>44</v>
       </c>
       <c r="F49" s="14"/>
       <c r="H49" s="12"/>
       <c r="T49" s="14"/>
     </row>
-    <row r="50" spans="3:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C50" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="60">
+      <c r="D50" s="22">
         <f>D48/3*1</f>
         <v>1.0433333333333332</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="61" t="s">
         <v>44</v>
       </c>
       <c r="F50" s="14"/>
@@ -3332,7 +3326,7 @@
       <c r="N50" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="O50" s="56">
+      <c r="O50" s="51">
         <f>D34</f>
         <v>122.46124999999999</v>
       </c>
@@ -3341,153 +3335,153 @@
       </c>
       <c r="T50" s="14"/>
     </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C51" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D51" s="60">
+      <c r="D51" s="22">
         <f>D34*M53/N62</f>
-        <v>67.013517361111127</v>
-      </c>
-      <c r="E51" s="2" t="s">
+        <v>61.910965277777784</v>
+      </c>
+      <c r="E51" s="61" t="s">
         <v>68</v>
       </c>
       <c r="F51" s="14"/>
       <c r="H51" s="12"/>
       <c r="T51" s="14"/>
     </row>
-    <row r="52" spans="3:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C52" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="60">
+      <c r="D52" s="22">
         <f>D34-D51</f>
-        <v>55.447732638888866</v>
-      </c>
-      <c r="E52" s="2" t="s">
+        <v>60.550284722222209</v>
+      </c>
+      <c r="E52" s="61" t="s">
         <v>68</v>
       </c>
       <c r="F52" s="14"/>
       <c r="H52" s="12"/>
       <c r="T52" s="14"/>
     </row>
-    <row r="53" spans="3:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C53" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D53" s="60">
+      <c r="D53" s="22">
         <f>MAX(D51:D52)</f>
-        <v>67.013517361111127</v>
-      </c>
-      <c r="E53" s="2" t="s">
+        <v>61.910965277777784</v>
+      </c>
+      <c r="E53" s="61" t="s">
         <v>68</v>
       </c>
       <c r="F53" s="14"/>
       <c r="H53" s="12"/>
-      <c r="M53" s="56">
+      <c r="M53" s="51">
         <f>N62-P53</f>
-        <v>0.65666666666666673</v>
+        <v>0.60666666666666669</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P53" s="56">
+      <c r="P53" s="51">
         <f>D50-R62</f>
-        <v>0.54333333333333322</v>
+        <v>0.59333333333333327</v>
       </c>
       <c r="Q53" s="2" t="s">
         <v>44</v>
       </c>
       <c r="T53" s="14"/>
     </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C54" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D54" s="60">
+      <c r="D54" s="22">
         <f>D47/D53</f>
-        <v>2.2383543784413722</v>
-      </c>
-      <c r="E54" s="2" t="s">
+        <v>2.4228341349063207</v>
+      </c>
+      <c r="E54" s="61" t="s">
         <v>44</v>
       </c>
       <c r="F54" s="14"/>
       <c r="H54" s="12"/>
       <c r="T54" s="14"/>
     </row>
-    <row r="55" spans="3:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C55" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D55" s="61">
+      <c r="D55" s="50">
         <f>INT(D54*10)/10</f>
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="E55" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F55" s="62"/>
+      <c r="F55" s="55"/>
       <c r="H55" s="12"/>
       <c r="T55" s="14"/>
     </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:20" x14ac:dyDescent="0.3">
       <c r="H56" s="12"/>
       <c r="T56" s="14"/>
     </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:20" x14ac:dyDescent="0.3">
       <c r="H57" s="12"/>
       <c r="T57" s="14"/>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.3">
       <c r="H58" s="12"/>
-      <c r="L58" s="64" t="s">
+      <c r="L58" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="R58" s="64" t="s">
+      <c r="R58" s="57" t="s">
         <v>83</v>
       </c>
       <c r="T58" s="14"/>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.3">
       <c r="H59" s="12"/>
       <c r="T59" s="14"/>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.3">
       <c r="H60" s="12"/>
       <c r="T60" s="14"/>
     </row>
-    <row r="61" spans="3:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H61" s="12"/>
       <c r="T61" s="14"/>
     </row>
-    <row r="62" spans="3:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H62" s="12"/>
-      <c r="N62" s="57">
+      <c r="N62" s="52">
         <v>1.2</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R62" s="57">
-        <v>0.5</v>
+      <c r="R62" s="52">
+        <v>0.45</v>
       </c>
       <c r="S62" s="2" t="s">
         <v>44</v>
       </c>
       <c r="T62" s="14"/>
     </row>
-    <row r="63" spans="3:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H63" s="12"/>
       <c r="T63" s="14"/>
     </row>
-    <row r="64" spans="3:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H64" s="12"/>
       <c r="J64" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="K64" s="56">
+      <c r="K64" s="51">
         <f>D51</f>
-        <v>67.013517361111127</v>
+        <v>61.910965277777784</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>68</v>
@@ -3495,20 +3489,20 @@
       <c r="P64" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="Q64" s="56">
+      <c r="Q64" s="51">
         <f>D52</f>
-        <v>55.447732638888866</v>
+        <v>60.550284722222209</v>
       </c>
       <c r="R64" s="2" t="s">
         <v>68</v>
       </c>
       <c r="T64" s="14"/>
     </row>
-    <row r="65" spans="8:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="8:20" x14ac:dyDescent="0.3">
       <c r="H65" s="12"/>
       <c r="T65" s="14"/>
     </row>
-    <row r="66" spans="8:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="8:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H66" s="15"/>
       <c r="I66" s="21"/>
       <c r="J66" s="21"/>
@@ -3521,7 +3515,7 @@
       <c r="Q66" s="21"/>
       <c r="R66" s="21"/>
       <c r="S66" s="21"/>
-      <c r="T66" s="62"/>
+      <c r="T66" s="55"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3582,9 +3576,9 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>63</v>
       </c>
@@ -3592,7 +3586,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -3600,7 +3594,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -3621,17 +3615,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -3649,24 +3643,24 @@
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -3684,9 +3678,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
@@ -3694,7 +3688,7 @@
     <col min="7" max="7" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3735,7 +3729,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -3776,7 +3770,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3817,7 +3811,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3858,7 +3852,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -3899,7 +3893,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3916,7 +3910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3933,7 +3927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
